--- a/Domestic Standard Upload Template.xlsx
+++ b/Domestic Standard Upload Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26202"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\275261\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CD80CC-965C-4527-813B-64084523F53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{F21EF6E1-2E35-4415-AD49-BA7E0FB50922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18225338-B922-4E21-859F-D7BA408AC1F8}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="1" activeTab="2" xr2:uid="{CE78BDE3-7438-4330-9B0A-3EEE37903C7F}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" firstSheet="1" activeTab="1" xr2:uid="{CE78BDE3-7438-4330-9B0A-3EEE37903C7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Combined Master" sheetId="1" state="hidden" r:id="rId1"/>
@@ -57,6 +57,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1154,7 +1156,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1456,7 +1462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1546,24 +1552,13 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1572,24 +1567,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1598,31 +1582,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1637,6 +1606,76 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2026,26 +2065,26 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="D85" sqref="D85"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="5.15625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="27.15625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.41796875" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="66.578125" style="26" customWidth="1"/>
-    <col min="5" max="5" width="14.83984375" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.41796875" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.15625" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.41796875" style="28" customWidth="1"/>
-    <col min="10" max="10" width="15.41796875" style="26" customWidth="1"/>
-    <col min="11" max="11" width="14.83984375" style="26" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.5703125" style="26" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" style="28" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="26" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" ht="43.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2080,7 +2119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" ht="28.9" hidden="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2115,7 +2154,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="11" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" s="11" customFormat="1" ht="28.9">
       <c r="A3" s="5">
         <v>5</v>
       </c>
@@ -2150,7 +2189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="94.5" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" ht="94.5" hidden="1" customHeight="1">
       <c r="A4" s="5">
         <v>6</v>
       </c>
@@ -2185,7 +2224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" hidden="1">
       <c r="A5" s="5">
         <v>7</v>
       </c>
@@ -2220,7 +2259,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" ht="28.9" hidden="1">
       <c r="A6" s="5">
         <v>10</v>
       </c>
@@ -2255,7 +2294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" hidden="1">
       <c r="A7" s="5">
         <v>11</v>
       </c>
@@ -2290,7 +2329,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" ht="28.9" hidden="1">
       <c r="A8" s="5">
         <v>13</v>
       </c>
@@ -2325,7 +2364,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" s="5">
         <v>15</v>
       </c>
@@ -2360,7 +2399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11">
       <c r="A10" s="5">
         <v>16</v>
       </c>
@@ -2395,7 +2434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" hidden="1">
       <c r="A11" s="5">
         <v>17</v>
       </c>
@@ -2430,7 +2469,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" hidden="1">
       <c r="A12" s="5">
         <v>18</v>
       </c>
@@ -2465,7 +2504,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" hidden="1">
       <c r="A13" s="5">
         <v>19</v>
       </c>
@@ -2500,7 +2539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" hidden="1">
       <c r="A14" s="5">
         <v>20</v>
       </c>
@@ -2535,7 +2574,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" hidden="1">
       <c r="A15" s="5">
         <v>21</v>
       </c>
@@ -2570,7 +2609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" hidden="1">
       <c r="A16" s="5">
         <v>22</v>
       </c>
@@ -2605,7 +2644,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:11" s="16" customFormat="1" hidden="1">
       <c r="A17" s="5">
         <v>23</v>
       </c>
@@ -2638,7 +2677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:11" hidden="1">
       <c r="A18" s="5">
         <v>24</v>
       </c>
@@ -2673,7 +2712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:11" hidden="1">
       <c r="A19" s="5">
         <v>25</v>
       </c>
@@ -2708,7 +2747,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:11" hidden="1">
       <c r="A20" s="5">
         <v>26</v>
       </c>
@@ -2743,7 +2782,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:11" hidden="1">
       <c r="A21" s="5">
         <v>27</v>
       </c>
@@ -2778,7 +2817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:11" hidden="1">
       <c r="A22" s="5">
         <v>28</v>
       </c>
@@ -2813,7 +2852,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:11" hidden="1">
       <c r="A23" s="5">
         <v>29</v>
       </c>
@@ -2848,7 +2887,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:11" hidden="1">
       <c r="A24" s="5">
         <v>30</v>
       </c>
@@ -2883,7 +2922,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:11" hidden="1">
       <c r="A25" s="5">
         <v>31</v>
       </c>
@@ -2918,7 +2957,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:11">
       <c r="A26" s="5">
         <v>32</v>
       </c>
@@ -2953,7 +2992,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:11" hidden="1">
       <c r="A27" s="5">
         <v>33</v>
       </c>
@@ -2986,7 +3025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:11" hidden="1">
       <c r="A28" s="5">
         <v>34</v>
       </c>
@@ -3021,7 +3060,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:11" ht="28.9" hidden="1">
       <c r="A29" s="5">
         <v>35</v>
       </c>
@@ -3056,7 +3095,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:11" hidden="1">
       <c r="A30" s="5">
         <v>36</v>
       </c>
@@ -3091,7 +3130,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:11">
       <c r="A31" s="5">
         <v>37</v>
       </c>
@@ -3126,7 +3165,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:11" ht="28.9" hidden="1">
       <c r="A32" s="5">
         <v>38</v>
       </c>
@@ -3161,7 +3200,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:11" hidden="1">
       <c r="A33" s="5">
         <v>39</v>
       </c>
@@ -3196,7 +3235,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:11" hidden="1">
       <c r="A34" s="5">
         <v>40</v>
       </c>
@@ -3231,7 +3270,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:11" hidden="1">
       <c r="A35" s="5">
         <v>41</v>
       </c>
@@ -3266,7 +3305,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:11" hidden="1">
       <c r="A36" s="5">
         <v>42</v>
       </c>
@@ -3301,7 +3340,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:11" hidden="1">
       <c r="A37" s="5">
         <v>43</v>
       </c>
@@ -3336,7 +3375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:11" ht="28.9" hidden="1">
       <c r="A38" s="5">
         <v>45</v>
       </c>
@@ -3369,7 +3408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:11" hidden="1">
       <c r="A39" s="5">
         <v>46</v>
       </c>
@@ -3404,7 +3443,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:11" ht="28.9" hidden="1">
       <c r="A40" s="5">
         <v>47</v>
       </c>
@@ -3439,7 +3478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:11" ht="28.9" hidden="1">
       <c r="A41" s="5">
         <v>49</v>
       </c>
@@ -3474,7 +3513,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:11" hidden="1">
       <c r="A42" s="5">
         <v>50</v>
       </c>
@@ -3509,7 +3548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:11">
       <c r="A43" s="5">
         <v>51</v>
       </c>
@@ -3544,7 +3583,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:11" ht="43.15">
       <c r="A44" s="5">
         <v>52</v>
       </c>
@@ -3579,7 +3618,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:11" ht="43.15" hidden="1">
       <c r="A45" s="5">
         <v>55</v>
       </c>
@@ -3614,7 +3653,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:11" ht="28.9" hidden="1">
       <c r="A46" s="5">
         <v>57</v>
       </c>
@@ -3649,7 +3688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:11" ht="28.9" hidden="1">
       <c r="A47" s="5">
         <v>58</v>
       </c>
@@ -3684,7 +3723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:11" hidden="1">
       <c r="A48" s="5">
         <v>61</v>
       </c>
@@ -3719,7 +3758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:11" ht="28.9" hidden="1">
       <c r="A49" s="5">
         <v>62</v>
       </c>
@@ -3752,7 +3791,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:11" ht="28.9" hidden="1">
       <c r="A50" s="5">
         <v>63</v>
       </c>
@@ -3787,7 +3826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:11" ht="28.9" hidden="1">
       <c r="A51" s="5">
         <v>66</v>
       </c>
@@ -3822,7 +3861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:11" hidden="1">
       <c r="A52" s="5">
         <v>76</v>
       </c>
@@ -3857,7 +3896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:11" hidden="1">
       <c r="A53" s="5">
         <v>77</v>
       </c>
@@ -3890,7 +3929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:11" hidden="1">
       <c r="A54" s="5">
         <v>78</v>
       </c>
@@ -3923,7 +3962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:11" hidden="1">
       <c r="A55" s="5">
         <v>83</v>
       </c>
@@ -3958,7 +3997,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:11" hidden="1">
       <c r="A56" s="5">
         <v>84</v>
       </c>
@@ -3993,7 +4032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:11" ht="28.9" hidden="1">
       <c r="A57" s="5">
         <v>85</v>
       </c>
@@ -4028,7 +4067,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:11" hidden="1">
       <c r="A58" s="5">
         <v>90</v>
       </c>
@@ -4063,7 +4102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:11" s="16" customFormat="1" hidden="1">
       <c r="A59" s="5">
         <v>92</v>
       </c>
@@ -4098,7 +4137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:11" ht="60" hidden="1" customHeight="1">
       <c r="A60" s="5">
         <v>93</v>
       </c>
@@ -4133,7 +4172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:11" hidden="1">
       <c r="A61" s="5">
         <v>98</v>
       </c>
@@ -4168,7 +4207,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:11" hidden="1">
       <c r="A62" s="5">
         <v>101</v>
       </c>
@@ -4203,7 +4242,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:11" hidden="1">
       <c r="A63" s="5">
         <v>102</v>
       </c>
@@ -4238,7 +4277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:11" ht="43.15" hidden="1">
       <c r="A64" s="5">
         <v>103</v>
       </c>
@@ -4273,7 +4312,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:11" hidden="1">
       <c r="A65" s="5">
         <v>104</v>
       </c>
@@ -4308,7 +4347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:11" hidden="1">
       <c r="A66" s="5">
         <v>105</v>
       </c>
@@ -4341,7 +4380,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:11" hidden="1">
       <c r="A67" s="5">
         <v>106</v>
       </c>
@@ -4376,7 +4415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:11" hidden="1">
       <c r="A68" s="5">
         <v>116</v>
       </c>
@@ -4411,7 +4450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:11" hidden="1">
       <c r="A69" s="5">
         <v>117</v>
       </c>
@@ -4446,7 +4485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:11" hidden="1">
       <c r="A70" s="5">
         <v>118</v>
       </c>
@@ -4481,7 +4520,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:11" hidden="1">
       <c r="A71" s="5">
         <v>119</v>
       </c>
@@ -4516,7 +4555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:11" ht="28.9" hidden="1">
       <c r="A72" s="5">
         <v>120</v>
       </c>
@@ -4551,7 +4590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:11" hidden="1">
       <c r="A73" s="5">
         <v>121</v>
       </c>
@@ -4586,7 +4625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:11" hidden="1">
       <c r="A74" s="5">
         <v>122</v>
       </c>
@@ -4621,7 +4660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:11" hidden="1">
       <c r="A75" s="5">
         <v>123</v>
       </c>
@@ -4656,7 +4695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:11" hidden="1">
       <c r="A76" s="5">
         <v>125</v>
       </c>
@@ -4691,7 +4730,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:11" hidden="1">
       <c r="A77" s="5">
         <v>126</v>
       </c>
@@ -4726,7 +4765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:11" hidden="1">
       <c r="A78" s="5">
         <v>129</v>
       </c>
@@ -4761,7 +4800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:11" hidden="1">
       <c r="A79" s="5">
         <v>130</v>
       </c>
@@ -4796,7 +4835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:11" hidden="1">
       <c r="A80" s="5">
         <v>131</v>
       </c>
@@ -4831,7 +4870,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:11" ht="28.9">
       <c r="A81" s="5">
         <v>132</v>
       </c>
@@ -4866,7 +4905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:11" hidden="1">
       <c r="A82" s="5">
         <v>133</v>
       </c>
@@ -4901,7 +4940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:11" hidden="1">
       <c r="A83" s="5">
         <v>138</v>
       </c>
@@ -4936,7 +4975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:11" hidden="1">
       <c r="A84" s="5">
         <v>139</v>
       </c>
@@ -4971,7 +5010,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:11">
       <c r="A85" s="5">
         <v>141</v>
       </c>
@@ -5006,7 +5045,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:11" hidden="1">
       <c r="A86" s="5">
         <v>142</v>
       </c>
@@ -5041,7 +5080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:11" hidden="1">
       <c r="A87" s="5">
         <v>147</v>
       </c>
@@ -5074,7 +5113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:11" hidden="1">
       <c r="A88" s="5">
         <v>148</v>
       </c>
@@ -5109,7 +5148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:11" hidden="1">
       <c r="A89" s="5">
         <v>152</v>
       </c>
@@ -5142,7 +5181,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:11" hidden="1">
       <c r="A90" s="5">
         <v>153</v>
       </c>
@@ -5175,7 +5214,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:11" hidden="1">
       <c r="A91" s="5">
         <v>154</v>
       </c>
@@ -5208,7 +5247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:11" ht="28.9" hidden="1">
       <c r="A92" s="5">
         <v>155</v>
       </c>
@@ -5241,7 +5280,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="24" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:11" s="24" customFormat="1" ht="28.9" hidden="1">
       <c r="A93" s="5">
         <v>158</v>
       </c>
@@ -5276,7 +5315,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:11" hidden="1">
       <c r="A94" s="5">
         <v>164</v>
       </c>
@@ -5309,7 +5348,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:11" hidden="1">
       <c r="A95" s="5">
         <v>165</v>
       </c>
@@ -5342,7 +5381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:11" hidden="1">
       <c r="A96" s="5">
         <v>167</v>
       </c>
@@ -5377,7 +5416,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:11" hidden="1">
       <c r="A97" s="5">
         <v>168</v>
       </c>
@@ -5412,7 +5451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:11" hidden="1">
       <c r="A98" s="5">
         <v>170</v>
       </c>
@@ -5447,7 +5486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:11" hidden="1">
       <c r="A99" s="5">
         <v>173</v>
       </c>
@@ -5482,7 +5521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:11" hidden="1">
       <c r="A100" s="5">
         <v>177</v>
       </c>
@@ -5517,7 +5556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:11" hidden="1">
       <c r="A101" s="5">
         <v>178</v>
       </c>
@@ -5605,176 +5644,176 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A17F3EB-F212-417F-BA00-A3FB97B2BF77}">
   <dimension ref="A1:CV5"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="8.68359375"/>
-    <col min="2" max="2" width="9.41796875" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.578125" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.41796875" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.41796875" style="37" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.41796875" style="38" customWidth="1"/>
-    <col min="8" max="8" width="9.41796875" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.15625" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="8.41796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.41796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.15625" style="39" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="9.41796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="24" max="30" width="8.41796875" style="39" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.15625" style="39" customWidth="1"/>
-    <col min="32" max="32" width="10.83984375" style="39" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.15625" style="39" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.68359375" style="39" customWidth="1"/>
-    <col min="35" max="35" width="11" style="38" customWidth="1"/>
-    <col min="36" max="36" width="8.68359375" style="38"/>
-    <col min="37" max="38" width="8.26171875" style="38" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11" style="38" customWidth="1"/>
-    <col min="40" max="44" width="8.26171875" style="38" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.68359375" style="38"/>
-    <col min="46" max="46" width="8.578125" style="38" bestFit="1" customWidth="1"/>
-    <col min="47" max="51" width="8.26171875" style="38" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8.68359375" style="38"/>
-    <col min="53" max="55" width="8.26171875" style="38" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="18" style="38" customWidth="1"/>
-    <col min="57" max="59" width="8.26171875" style="38" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.41796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="61" max="63" width="8.26171875" style="38" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="13.578125" style="38" customWidth="1"/>
-    <col min="65" max="65" width="12.83984375" style="38" customWidth="1"/>
-    <col min="66" max="66" width="13.15625" style="38" customWidth="1"/>
-    <col min="67" max="67" width="11.83984375" style="38" customWidth="1"/>
-    <col min="68" max="68" width="15.83984375" style="38" customWidth="1"/>
-    <col min="69" max="69" width="13.15625" style="38" customWidth="1"/>
-    <col min="70" max="70" width="17.68359375" style="38" customWidth="1"/>
-    <col min="71" max="71" width="11.41796875" style="38" customWidth="1"/>
-    <col min="72" max="72" width="9.41796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="8.26171875" style="38" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="13.578125" style="38" customWidth="1"/>
-    <col min="75" max="75" width="8.578125" style="38" bestFit="1" customWidth="1"/>
-    <col min="76" max="77" width="8.68359375" style="38"/>
-    <col min="78" max="80" width="8.26171875" style="38" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="8.41796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="82" max="83" width="8.26171875" style="38" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="13.15625" style="38" customWidth="1"/>
-    <col min="85" max="86" width="8.26171875" style="38" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="8.41796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="10.578125" style="38" customWidth="1"/>
-    <col min="89" max="89" width="8.26171875" style="38" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="8.41796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="10.15625" style="38" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="8.26171875" style="38" bestFit="1" customWidth="1"/>
-    <col min="93" max="94" width="9.41796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="11.41796875" style="38" customWidth="1"/>
-    <col min="96" max="99" width="8.26171875" style="38" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="10.15625" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375"/>
+    <col min="2" max="2" width="9.42578125" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="84" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="75" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.42578125" style="76" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="77" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="78" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9" style="36" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="8.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="9.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="24" max="30" width="8.42578125" style="36" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.140625" style="36" customWidth="1"/>
+    <col min="32" max="32" width="10.85546875" style="36" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.140625" style="36" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.7109375" style="36" customWidth="1"/>
+    <col min="35" max="35" width="11" style="35" customWidth="1"/>
+    <col min="36" max="36" width="8.7109375" style="35"/>
+    <col min="37" max="38" width="8.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11" style="35" customWidth="1"/>
+    <col min="40" max="44" width="8.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.7109375" style="35"/>
+    <col min="46" max="46" width="8.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="47" max="51" width="8.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8.7109375" style="35"/>
+    <col min="53" max="55" width="8.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18" style="35" customWidth="1"/>
+    <col min="57" max="59" width="8.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="8.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="61" max="63" width="8.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="13.5703125" style="35" customWidth="1"/>
+    <col min="65" max="65" width="12.85546875" style="35" customWidth="1"/>
+    <col min="66" max="66" width="13.140625" style="35" customWidth="1"/>
+    <col min="67" max="67" width="11.85546875" style="35" customWidth="1"/>
+    <col min="68" max="68" width="15.85546875" style="35" customWidth="1"/>
+    <col min="69" max="69" width="13.140625" style="35" customWidth="1"/>
+    <col min="70" max="70" width="17.7109375" style="35" customWidth="1"/>
+    <col min="71" max="71" width="11.42578125" style="35" customWidth="1"/>
+    <col min="72" max="72" width="9.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="8.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="13.5703125" style="35" customWidth="1"/>
+    <col min="75" max="75" width="8.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="76" max="77" width="8.7109375" style="35"/>
+    <col min="78" max="80" width="8.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="8.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="8.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="13.140625" style="35" customWidth="1"/>
+    <col min="85" max="86" width="8.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="8.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="10.5703125" style="35" customWidth="1"/>
+    <col min="89" max="89" width="8.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="8.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="10.140625" style="35" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="8.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="93" max="94" width="9.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="11.42578125" style="35" customWidth="1"/>
+    <col min="96" max="99" width="8.28515625" style="35" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="10.140625" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:100" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:100" ht="45.75">
       <c r="A1" s="30" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="W1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="X1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB1" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC1" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD1" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE1" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF1" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG1" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH1" s="34" t="s">
+      <c r="C1" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD1" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF1" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG1" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH1" s="33" t="s">
         <v>35</v>
       </c>
       <c r="AI1" s="10" t="s">
@@ -5976,1010 +6015,1010 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:100" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:100" ht="14.65" thickBot="1">
       <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="80" t="s">
         <v>240</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="60" t="s">
         <v>241</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="60" t="s">
         <v>241</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="61" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="M2" s="44" t="s">
+      <c r="M2" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="O2" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="R2" s="44" t="s">
+      <c r="R2" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="S2" s="44" t="s">
+      <c r="S2" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="T2" s="44" t="s">
+      <c r="T2" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="U2" s="44" t="s">
+      <c r="U2" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="V2" s="44" t="s">
+      <c r="V2" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="W2" s="44" t="s">
+      <c r="W2" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="X2" s="44" t="s">
+      <c r="X2" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="Y2" s="44" t="s">
+      <c r="Y2" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="Z2" s="44" t="s">
+      <c r="Z2" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="AA2" s="44" t="s">
+      <c r="AA2" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="AB2" s="44" t="s">
+      <c r="AB2" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="AC2" s="44" t="s">
+      <c r="AC2" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="AD2" s="44" t="s">
+      <c r="AD2" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="AE2" s="44" t="s">
+      <c r="AE2" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="AF2" s="44" t="s">
+      <c r="AF2" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="AG2" s="44" t="s">
+      <c r="AG2" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="AH2" s="44" t="s">
+      <c r="AH2" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="AI2" s="43" t="s">
+      <c r="AI2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AJ2" s="43" t="s">
+      <c r="AJ2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AK2" s="43" t="s">
+      <c r="AK2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AL2" s="43" t="s">
+      <c r="AL2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AM2" s="43" t="s">
+      <c r="AM2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AN2" s="43" t="s">
+      <c r="AN2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AO2" s="43" t="s">
+      <c r="AO2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AP2" s="43" t="s">
+      <c r="AP2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AQ2" s="43" t="s">
+      <c r="AQ2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AR2" s="43" t="s">
+      <c r="AR2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AS2" s="43" t="s">
+      <c r="AS2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AT2" s="43" t="s">
+      <c r="AT2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AU2" s="43" t="s">
+      <c r="AU2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AV2" s="43" t="s">
+      <c r="AV2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AW2" s="43" t="s">
+      <c r="AW2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AX2" s="43" t="s">
+      <c r="AX2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AY2" s="43" t="s">
+      <c r="AY2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="AZ2" s="43" t="s">
+      <c r="AZ2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="BA2" s="43" t="s">
+      <c r="BA2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="BB2" s="43" t="s">
+      <c r="BB2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="BC2" s="43" t="s">
+      <c r="BC2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="BD2" s="43" t="s">
+      <c r="BD2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="BE2" s="43" t="s">
+      <c r="BE2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="BF2" s="46" t="s">
+      <c r="BF2" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="BG2" s="43" t="s">
+      <c r="BG2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="BH2" s="43" t="s">
+      <c r="BH2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="BI2" s="43" t="s">
+      <c r="BI2" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="BJ2" s="43" t="s">
+      <c r="BJ2" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="BK2" s="43" t="s">
+      <c r="BK2" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="BL2" s="43" t="s">
+      <c r="BL2" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="BM2" s="43" t="s">
+      <c r="BM2" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="BN2" s="43" t="s">
+      <c r="BN2" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="BO2" s="43" t="s">
+      <c r="BO2" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="BP2" s="43" t="s">
+      <c r="BP2" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="BQ2" s="43" t="s">
+      <c r="BQ2" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="BR2" s="43" t="s">
+      <c r="BR2" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="BS2" s="43" t="s">
+      <c r="BS2" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="BT2" s="43" t="s">
+      <c r="BT2" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="BU2" s="43" t="s">
+      <c r="BU2" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="BV2" s="43" t="s">
+      <c r="BV2" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="BW2" s="43" t="s">
+      <c r="BW2" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="BX2" s="43" t="s">
+      <c r="BX2" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="BY2" s="43" t="s">
+      <c r="BY2" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="BZ2" s="43" t="s">
+      <c r="BZ2" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="CA2" s="43" t="s">
+      <c r="CA2" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="CB2" s="43" t="s">
+      <c r="CB2" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="CC2" s="43" t="s">
+      <c r="CC2" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="CD2" s="43" t="s">
+      <c r="CD2" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="CE2" s="43" t="s">
+      <c r="CE2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="CF2" s="43" t="s">
+      <c r="CF2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="CG2" s="43" t="s">
+      <c r="CG2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="CH2" s="43" t="s">
+      <c r="CH2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="CI2" s="43" t="s">
+      <c r="CI2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="CJ2" s="43" t="s">
+      <c r="CJ2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="CK2" s="43" t="s">
+      <c r="CK2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="CL2" s="43" t="s">
+      <c r="CL2" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="CM2" s="43" t="s">
+      <c r="CM2" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="CN2" s="43" t="s">
+      <c r="CN2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="CO2" s="43" t="s">
+      <c r="CO2" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="CP2" s="43" t="s">
+      <c r="CP2" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="CQ2" s="43" t="s">
+      <c r="CQ2" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="CR2" s="43" t="s">
+      <c r="CR2" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="CS2" s="43" t="s">
+      <c r="CS2" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="CT2" s="43" t="s">
+      <c r="CT2" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="CU2" s="43" t="s">
+      <c r="CU2" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="CV2" s="43" t="s">
+      <c r="CV2" s="38" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:100" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:100">
       <c r="A3" s="31"/>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="J3" s="56" t="s">
+      <c r="J3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="K3" s="56" t="s">
+      <c r="K3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="L3" s="56" t="s">
+      <c r="L3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="M3" s="56" t="s">
+      <c r="M3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="N3" s="56" t="s">
+      <c r="N3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="O3" s="56" t="s">
+      <c r="O3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="P3" s="56" t="s">
+      <c r="P3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="Q3" s="56" t="s">
+      <c r="Q3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="R3" s="56" t="s">
+      <c r="R3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="S3" s="56" t="s">
+      <c r="S3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="T3" s="56" t="s">
+      <c r="T3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="U3" s="56" t="s">
+      <c r="U3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="V3" s="56" t="s">
+      <c r="V3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="W3" s="56" t="s">
+      <c r="W3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="X3" s="56" t="s">
+      <c r="X3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="Y3" s="56" t="s">
+      <c r="Y3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="Z3" s="56" t="s">
+      <c r="Z3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="AA3" s="56" t="s">
+      <c r="AA3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="AB3" s="56" t="s">
+      <c r="AB3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="AC3" s="56" t="s">
+      <c r="AC3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="AD3" s="56" t="s">
+      <c r="AD3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="AE3" s="56" t="s">
+      <c r="AE3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="AF3" s="56" t="s">
+      <c r="AF3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="AG3" s="56" t="s">
+      <c r="AG3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="AH3" s="56" t="s">
+      <c r="AH3" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="AI3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AJ3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AP3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AQ3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AS3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AY3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="AZ3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BA3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BB3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BC3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BE3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BG3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BH3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BI3" s="55" t="s">
+      <c r="AI3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI3" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="BJ3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BK3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BL3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BM3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BN3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BO3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BQ3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BR3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BS3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BT3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BU3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BV3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BW3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BX3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BY3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="BZ3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CB3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CC3" s="55" t="s">
+      <c r="BJ3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BM3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BS3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BT3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BV3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BW3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BY3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="BZ3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CC3" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="CD3" s="55" t="s">
+      <c r="CD3" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="CE3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CG3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CH3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CI3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CJ3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CL3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CM3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CO3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CP3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CQ3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CR3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CS3" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT3" s="55" t="s">
+      <c r="CE3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CF3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CH3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CI3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CN3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CO3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CP3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CQ3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CR3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CS3" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT3" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="CU3" s="55" t="s">
+      <c r="CU3" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="CV3" s="58" t="s">
+      <c r="CV3" s="47" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:100" s="29" customFormat="1" ht="57.9" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:100" s="29" customFormat="1" ht="76.5">
       <c r="A4" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="I4" s="64" t="s">
+      <c r="I4" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="J4" s="64" t="s">
+      <c r="J4" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="K4" s="64" t="s">
+      <c r="K4" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="L4" s="64" t="s">
+      <c r="L4" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="M4" s="66" t="s">
+      <c r="M4" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="P4" s="64" t="s">
+      <c r="P4" s="50" t="s">
         <v>232</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="51" t="s">
         <v>234</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="S4" s="64" t="s">
+      <c r="S4" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="T4" s="66" t="s">
+      <c r="T4" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="U4" s="66" t="s">
+      <c r="U4" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="V4" s="66" t="s">
+      <c r="V4" s="51" t="s">
         <v>190</v>
       </c>
-      <c r="W4" s="66" t="s">
+      <c r="W4" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="X4" s="66" t="s">
+      <c r="X4" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="Y4" s="66" t="s">
+      <c r="Y4" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="Z4" s="66" t="s">
+      <c r="Z4" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="AA4" s="66" t="s">
+      <c r="AA4" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="AB4" s="64" t="s">
+      <c r="AB4" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="AC4" s="64" t="s">
+      <c r="AC4" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="AD4" s="66" t="s">
+      <c r="AD4" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="AE4" s="64" t="s">
+      <c r="AE4" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="AF4" s="64" t="s">
+      <c r="AF4" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="AG4" s="64" t="s">
+      <c r="AG4" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="AH4" s="64" t="s">
+      <c r="AH4" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="AI4" s="67" t="s">
+      <c r="AI4" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AJ4" s="63" t="s">
+      <c r="AJ4" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="AK4" s="67" t="s">
+      <c r="AK4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="AL4" s="67" t="s">
+      <c r="AL4" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="AM4" s="67" t="s">
+      <c r="AM4" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="AN4" s="67" t="s">
+      <c r="AN4" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="AO4" s="67" t="s">
+      <c r="AO4" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="AP4" s="67" t="s">
+      <c r="AP4" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="AQ4" s="67" t="s">
+      <c r="AQ4" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="AR4" s="67" t="s">
+      <c r="AR4" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="AS4" s="67" t="s">
+      <c r="AS4" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="AT4" s="67" t="s">
+      <c r="AT4" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="AU4" s="63" t="s">
+      <c r="AU4" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="AV4" s="67" t="s">
+      <c r="AV4" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="AW4" s="63" t="s">
+      <c r="AW4" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="AX4" s="67" t="s">
+      <c r="AX4" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="AY4" s="67" t="s">
+      <c r="AY4" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="AZ4" s="67" t="s">
+      <c r="AZ4" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="BA4" s="67" t="s">
+      <c r="BA4" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="BB4" s="67" t="s">
+      <c r="BB4" s="52" t="s">
         <v>249</v>
       </c>
-      <c r="BC4" s="63" t="s">
+      <c r="BC4" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="BD4" s="63" t="s">
+      <c r="BD4" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="BE4" s="63" t="s">
+      <c r="BE4" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="BF4" s="63" t="s">
+      <c r="BF4" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="BG4" s="67" t="s">
+      <c r="BG4" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="BH4" s="63" t="s">
+      <c r="BH4" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="BI4" s="63" t="s">
+      <c r="BI4" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="BJ4" s="63" t="s">
+      <c r="BJ4" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="BK4" s="63" t="s">
+      <c r="BK4" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="BL4" s="63" t="s">
+      <c r="BL4" s="49" t="s">
         <v>169</v>
       </c>
-      <c r="BM4" s="67" t="s">
+      <c r="BM4" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="BN4" s="67" t="s">
+      <c r="BN4" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="BO4" s="63" t="s">
+      <c r="BO4" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="BP4" s="63" t="s">
+      <c r="BP4" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="BQ4" s="63" t="s">
+      <c r="BQ4" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="BR4" s="67" t="s">
+      <c r="BR4" s="52" t="s">
         <v>182</v>
       </c>
-      <c r="BS4" s="63" t="s">
+      <c r="BS4" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="BT4" s="67" t="s">
+      <c r="BT4" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="BU4" s="67" t="s">
+      <c r="BU4" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="BV4" s="63" t="s">
+      <c r="BV4" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="BW4" s="63" t="s">
+      <c r="BW4" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="BX4" s="63" t="s">
+      <c r="BX4" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="BY4" s="63" t="s">
+      <c r="BY4" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="BZ4" s="63" t="s">
+      <c r="BZ4" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="CA4" s="63" t="s">
+      <c r="CA4" s="49" t="s">
         <v>229</v>
       </c>
-      <c r="CB4" s="67" t="s">
+      <c r="CB4" s="52" t="s">
         <v>238</v>
       </c>
-      <c r="CC4" s="63" t="s">
+      <c r="CC4" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="CD4" s="63" t="s">
+      <c r="CD4" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="CE4" s="67" t="s">
+      <c r="CE4" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="CF4" s="63" t="s">
+      <c r="CF4" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="CG4" s="63" t="s">
+      <c r="CG4" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="CH4" s="67" t="s">
+      <c r="CH4" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="CI4" s="68" t="s">
+      <c r="CI4" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="CJ4" s="67" t="s">
+      <c r="CJ4" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="CK4" s="63" t="s">
+      <c r="CK4" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="CL4" s="67" t="s">
+      <c r="CL4" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="CM4" s="67" t="s">
+      <c r="CM4" s="52" t="s">
         <v>142</v>
       </c>
-      <c r="CN4" s="68" t="s">
+      <c r="CN4" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="CO4" s="63" t="s">
+      <c r="CO4" s="49" t="s">
         <v>163</v>
       </c>
-      <c r="CP4" s="67" t="s">
+      <c r="CP4" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="CQ4" s="67" t="s">
+      <c r="CQ4" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="CR4" s="67" t="s">
+      <c r="CR4" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="CS4" s="63" t="s">
+      <c r="CS4" s="49" t="s">
         <v>198</v>
       </c>
-      <c r="CT4" s="68" t="s">
+      <c r="CT4" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="CU4" s="63" t="s">
+      <c r="CU4" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="CV4" s="69" t="s">
+      <c r="CV4" s="54" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:100" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="50"/>
-      <c r="AD5" s="50"/>
-      <c r="AE5" s="50"/>
-      <c r="AF5" s="50"/>
-      <c r="AG5" s="50"/>
-      <c r="AH5" s="50"/>
-      <c r="AI5" s="49"/>
-      <c r="AJ5" s="49"/>
-      <c r="AK5" s="49"/>
-      <c r="AL5" s="49"/>
-      <c r="AM5" s="49"/>
-      <c r="AN5" s="49"/>
-      <c r="AO5" s="49"/>
-      <c r="AP5" s="49"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="49"/>
-      <c r="AS5" s="49"/>
-      <c r="AT5" s="49"/>
-      <c r="AU5" s="49"/>
-      <c r="AV5" s="49"/>
-      <c r="AW5" s="49"/>
-      <c r="AX5" s="49"/>
-      <c r="AY5" s="49"/>
-      <c r="AZ5" s="49"/>
-      <c r="BA5" s="49"/>
-      <c r="BB5" s="49"/>
-      <c r="BC5" s="49"/>
-      <c r="BD5" s="49"/>
-      <c r="BE5" s="49"/>
-      <c r="BF5" s="49"/>
-      <c r="BG5" s="49"/>
-      <c r="BH5" s="49"/>
-      <c r="BI5" s="49"/>
-      <c r="BJ5" s="49"/>
-      <c r="BK5" s="49"/>
-      <c r="BL5" s="49"/>
-      <c r="BM5" s="49"/>
-      <c r="BN5" s="49"/>
-      <c r="BO5" s="49"/>
-      <c r="BP5" s="49"/>
-      <c r="BQ5" s="49"/>
-      <c r="BR5" s="49"/>
-      <c r="BS5" s="49"/>
-      <c r="BT5" s="49"/>
-      <c r="BU5" s="49"/>
-      <c r="BV5" s="49"/>
-      <c r="BW5" s="49"/>
-      <c r="BX5" s="49"/>
-      <c r="BY5" s="49"/>
-      <c r="BZ5" s="49"/>
-      <c r="CA5" s="49"/>
-      <c r="CB5" s="49"/>
-      <c r="CC5" s="49"/>
-      <c r="CD5" s="49"/>
-      <c r="CE5" s="49"/>
-      <c r="CF5" s="49"/>
-      <c r="CG5" s="49"/>
-      <c r="CH5" s="49"/>
-      <c r="CI5" s="49"/>
-      <c r="CJ5" s="49"/>
-      <c r="CK5" s="49"/>
-      <c r="CL5" s="49"/>
-      <c r="CM5" s="49"/>
-      <c r="CN5" s="49"/>
-      <c r="CO5" s="49"/>
-      <c r="CP5" s="49"/>
-      <c r="CQ5" s="49"/>
-      <c r="CR5" s="49"/>
-      <c r="CS5" s="49"/>
-      <c r="CT5" s="49"/>
-      <c r="CU5" s="49"/>
-      <c r="CV5" s="49"/>
+    <row r="5" spans="1:100" hidden="1">
+      <c r="B5" s="41"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="42"/>
+      <c r="AK5" s="42"/>
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="42"/>
+      <c r="AR5" s="42"/>
+      <c r="AS5" s="42"/>
+      <c r="AT5" s="42"/>
+      <c r="AU5" s="42"/>
+      <c r="AV5" s="42"/>
+      <c r="AW5" s="42"/>
+      <c r="AX5" s="42"/>
+      <c r="AY5" s="42"/>
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="42"/>
+      <c r="BB5" s="42"/>
+      <c r="BC5" s="42"/>
+      <c r="BD5" s="42"/>
+      <c r="BE5" s="42"/>
+      <c r="BF5" s="42"/>
+      <c r="BG5" s="42"/>
+      <c r="BH5" s="42"/>
+      <c r="BI5" s="42"/>
+      <c r="BJ5" s="42"/>
+      <c r="BK5" s="42"/>
+      <c r="BL5" s="42"/>
+      <c r="BM5" s="42"/>
+      <c r="BN5" s="42"/>
+      <c r="BO5" s="42"/>
+      <c r="BP5" s="42"/>
+      <c r="BQ5" s="42"/>
+      <c r="BR5" s="42"/>
+      <c r="BS5" s="42"/>
+      <c r="BT5" s="42"/>
+      <c r="BU5" s="42"/>
+      <c r="BV5" s="42"/>
+      <c r="BW5" s="42"/>
+      <c r="BX5" s="42"/>
+      <c r="BY5" s="42"/>
+      <c r="BZ5" s="42"/>
+      <c r="CA5" s="42"/>
+      <c r="CB5" s="42"/>
+      <c r="CC5" s="42"/>
+      <c r="CD5" s="42"/>
+      <c r="CE5" s="42"/>
+      <c r="CF5" s="42"/>
+      <c r="CG5" s="42"/>
+      <c r="CH5" s="42"/>
+      <c r="CI5" s="42"/>
+      <c r="CJ5" s="42"/>
+      <c r="CK5" s="42"/>
+      <c r="CL5" s="42"/>
+      <c r="CM5" s="42"/>
+      <c r="CN5" s="42"/>
+      <c r="CO5" s="42"/>
+      <c r="CP5" s="42"/>
+      <c r="CQ5" s="42"/>
+      <c r="CR5" s="42"/>
+      <c r="CS5" s="42"/>
+      <c r="CT5" s="42"/>
+      <c r="CU5" s="42"/>
+      <c r="CV5" s="42"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -6997,13 +7036,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A75BBA-F9EE-440E-92CB-DE0F3D7743BE}">
   <dimension ref="E4:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="4" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="5:7">
       <c r="E4">
         <v>1</v>
       </c>
@@ -7014,7 +7053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="5:7">
       <c r="E5">
         <v>4</v>
       </c>
@@ -7025,7 +7064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="5:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="5:7">
       <c r="E6">
         <v>7</v>
       </c>
@@ -7242,45 +7281,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9149A93E-C697-4066-B609-D79D6821B8AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9149A93E-C697-4066-B609-D79D6821B8AF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41DAFC0D-C589-4871-8EC2-037587728CED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cc44513a-9740-48a8-b9a6-11a9236a0f51"/>
-    <ds:schemaRef ds:uri="ab086da4-aeaa-470f-88f5-e96437a646bb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41DAFC0D-C589-4871-8EC2-037587728CED}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7799FA91-D05F-41CA-9D85-32D7401AB4F3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="ab086da4-aeaa-470f-88f5-e96437a646bb"/>
-    <ds:schemaRef ds:uri="cc44513a-9740-48a8-b9a6-11a9236a0f51"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7799FA91-D05F-41CA-9D85-32D7401AB4F3}"/>
 </file>